--- a/results/mp/tinybert/corona/confidence/168/topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,24 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -76,100 +67,97 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>you</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -527,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +523,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>26</v>
@@ -596,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,31 +702,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L5">
+        <v>41</v>
+      </c>
+      <c r="M5">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0.9375</v>
-      </c>
-      <c r="L5">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7077922077922078</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5416666666666666</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3571428571428572</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.296137339055794</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,69 +902,45 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>164</v>
+        <v>340</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8046875</v>
+      </c>
+      <c r="L9">
+        <v>103</v>
+      </c>
+      <c r="M9">
+        <v>103</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>25</v>
       </c>
-      <c r="K9">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C10">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>63</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,95 +952,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.175</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>66</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="L11">
+        <v>91</v>
+      </c>
+      <c r="M11">
+        <v>91</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.75</v>
+      </c>
+      <c r="L12">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.8125</v>
-      </c>
-      <c r="L11">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1259259259259259</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>118</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L12">
-        <v>41</v>
-      </c>
       <c r="M12">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,15 +1004,15 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7962962962962963</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L13">
         <v>43</v>
@@ -1114,21 +1030,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,21 +1056,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7435897435897436</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1192,47 +1108,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>42</v>
-      </c>
-      <c r="M17">
-        <v>42</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.72</v>
+        <v>0.65625</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.64</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1296,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.589041095890411</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1348,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5862068965517241</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1374,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5446009389671361</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L25">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="M25">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5277777777777778</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L26">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="M26">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>68</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5263157894736842</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1478,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4545454545454545</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4418604651162791</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="L30">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="M30">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4021739130434783</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,73 +1498,73 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3714285714285714</v>
+        <v>0.008614232209737827</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3571428571428572</v>
+        <v>0.005406487785342411</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.2894736842105263</v>
+        <v>0.005314232902033271</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1660,33 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K35">
-        <v>0.02192982456140351</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
-      <c r="M35">
-        <v>10</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>446</v>
+        <v>4305</v>
       </c>
     </row>
   </sheetData>
